--- a/xlsx/country_comparison/radical_redistr_pol_US_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_US_share.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -461,377 +458,350 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410804352683</v>
+        <v>0.75326124011094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75326124011094</v>
+        <v>0.881979509829607</v>
       </c>
       <c r="E2" t="n">
-        <v>0.881979509829607</v>
+        <v>0.598370573496111</v>
       </c>
       <c r="F2" t="n">
-        <v>0.598370573496111</v>
+        <v>0.605019471892137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.605019471892137</v>
+        <v>0.670930964239829</v>
       </c>
       <c r="H2" t="n">
-        <v>0.670930964239829</v>
+        <v>0.744286257234234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.744286257234234</v>
+        <v>0.669437974908923</v>
       </c>
       <c r="J2" t="n">
-        <v>0.669437974908923</v>
+        <v>0.64924819576835</v>
       </c>
       <c r="K2" t="n">
-        <v>0.64924819576835</v>
+        <v>0.578610977325962</v>
       </c>
       <c r="L2" t="n">
-        <v>0.578610977325962</v>
+        <v>0.725127730173656</v>
       </c>
       <c r="M2" t="n">
-        <v>0.725127730173656</v>
+        <v>0.770791010357976</v>
       </c>
       <c r="N2" t="n">
-        <v>0.770791010357976</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.422998865238901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369985760861996</v>
+        <v>0.661137818175294</v>
       </c>
       <c r="D3" t="n">
-        <v>0.661137818175294</v>
+        <v>0.812564364619181</v>
       </c>
       <c r="E3" t="n">
-        <v>0.812564364619181</v>
+        <v>0.593176728095437</v>
       </c>
       <c r="F3" t="n">
-        <v>0.593176728095437</v>
+        <v>0.527806333768865</v>
       </c>
       <c r="G3" t="n">
-        <v>0.527806333768865</v>
+        <v>0.632917148987785</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632917148987785</v>
+        <v>0.670937221461187</v>
       </c>
       <c r="I3" t="n">
-        <v>0.670937221461187</v>
+        <v>0.457393328180411</v>
       </c>
       <c r="J3" t="n">
-        <v>0.457393328180411</v>
+        <v>0.600494807621033</v>
       </c>
       <c r="K3" t="n">
-        <v>0.600494807621033</v>
+        <v>0.573896987533015</v>
       </c>
       <c r="L3" t="n">
-        <v>0.573896987533015</v>
+        <v>0.676306813569887</v>
       </c>
       <c r="M3" t="n">
-        <v>0.676306813569887</v>
+        <v>0.697470165041275</v>
       </c>
       <c r="N3" t="n">
-        <v>0.697470165041275</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.414320739649134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616668833076667</v>
+        <v>0.680673282454082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680673282454082</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743644347389163</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="I4" t="n">
-        <v>0.814701212857562</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="J4" t="n">
-        <v>0.757048871605567</v>
+        <v>0.673024184815142</v>
       </c>
       <c r="K4" t="n">
-        <v>0.673024184815142</v>
+        <v>0.611564962508487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.611564962508487</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.671270631778761</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="N4" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501381130731594</v>
+        <v>0.787954017306878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787954017306878</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.876770446811719</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74609538238357</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664878143534609</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7335602187152</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.725922165695082</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.685126203737904</v>
+        <v>0.577788249681758</v>
       </c>
       <c r="K5" t="n">
-        <v>0.577788249681758</v>
+        <v>0.539896049184444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.539896049184444</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="M5" t="n">
-        <v>0.688883535477258</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="N5" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523930159271177</v>
+        <v>0.70986778173764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.70986778173764</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="E6" t="n">
-        <v>0.892471876813608</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.637051467662211</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="G6" t="n">
-        <v>0.578161277543308</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.433349195600366</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="I6" t="n">
-        <v>0.696851480613757</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="J6" t="n">
-        <v>0.583790255087382</v>
+        <v>0.71920406264065</v>
       </c>
       <c r="K6" t="n">
-        <v>0.71920406264065</v>
+        <v>0.6189512868848</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6189512868848</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.641824096726743</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="N6" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.485395103641793</v>
+        <v>0.650554150600728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.650554150600728</v>
+        <v>0.949068510449696</v>
       </c>
       <c r="E7" t="n">
-        <v>0.949068510449696</v>
+        <v>0.643446016542881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.643446016542881</v>
+        <v>0.49870325508058</v>
       </c>
       <c r="G7" t="n">
-        <v>0.49870325508058</v>
+        <v>0.421654543233796</v>
       </c>
       <c r="H7" t="n">
-        <v>0.421654543233796</v>
+        <v>0.721859577098009</v>
       </c>
       <c r="I7" t="n">
-        <v>0.721859577098009</v>
+        <v>0.567833043339243</v>
       </c>
       <c r="J7" t="n">
-        <v>0.567833043339243</v>
+        <v>0.701818734473399</v>
       </c>
       <c r="K7" t="n">
-        <v>0.701818734473399</v>
+        <v>0.6452359732538</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6452359732538</v>
+        <v>0.594885214041605</v>
       </c>
       <c r="M7" t="n">
-        <v>0.594885214041605</v>
+        <v>0.89017740422893</v>
       </c>
       <c r="N7" t="n">
-        <v>0.89017740422893</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.463635219077665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.451810364536854</v>
       </c>
       <c r="C8" t="n">
-        <v>0.300083084889478</v>
+        <v>0.558737352681819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.558737352681819</v>
+        <v>0.671740407264302</v>
       </c>
       <c r="E8" t="n">
-        <v>0.671740407264302</v>
+        <v>0.381096922735002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.381096922735002</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.302200617956964</v>
       </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8"/>
+      <c r="J8" t="n">
+        <v>0.441298675905061</v>
+      </c>
       <c r="K8" t="n">
-        <v>0.441298675905061</v>
+        <v>0.396920087544084</v>
       </c>
       <c r="L8" t="n">
-        <v>0.396920087544084</v>
+        <v>0.474757915976864</v>
       </c>
       <c r="M8" t="n">
-        <v>0.474757915976864</v>
+        <v>0.593250695193873</v>
       </c>
       <c r="N8" t="n">
-        <v>0.593250695193873</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.206703446618612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.591975291077805</v>
       </c>
       <c r="C9" t="n">
-        <v>0.499218371421509</v>
+        <v>0.581857202461739</v>
       </c>
       <c r="D9" t="n">
-        <v>0.581857202461739</v>
+        <v>0.809096347988613</v>
       </c>
       <c r="E9" t="n">
-        <v>0.809096347988613</v>
+        <v>0.561113372661989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.561113372661989</v>
+        <v>0.398718648810441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.398718648810441</v>
+        <v>0.57447231505182</v>
       </c>
       <c r="H9" t="n">
-        <v>0.57447231505182</v>
+        <v>0.652952489891304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.652952489891304</v>
+        <v>0.576305239322503</v>
       </c>
       <c r="J9" t="n">
-        <v>0.576305239322503</v>
+        <v>0.609946592968454</v>
       </c>
       <c r="K9" t="n">
-        <v>0.609946592968454</v>
+        <v>0.480793436949219</v>
       </c>
       <c r="L9" t="n">
-        <v>0.480793436949219</v>
+        <v>0.585354296646937</v>
       </c>
       <c r="M9" t="n">
-        <v>0.585354296646937</v>
+        <v>0.757501496513123</v>
       </c>
       <c r="N9" t="n">
-        <v>0.757501496513123</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.336242924079427</v>
       </c>
     </row>
